--- a/Dokumentation/CRC-kort template.xlsx
+++ b/Dokumentation/CRC-kort template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGPGamez\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc8847\Documents\GitHub\Country-Living\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EA19D1-42F7-491B-B0DF-B761547F5B36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F3C550-397E-4CAF-95AF-2A19C9AFB7A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9600" windowWidth="28800" windowHeight="7215" xr2:uid="{38320882-72EC-4BEA-8949-C468A3D1E1C9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{38320882-72EC-4BEA-8949-C468A3D1E1C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -43,6 +43,24 @@
   </si>
   <si>
     <t xml:space="preserve">Description: </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Description: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Det er hotel værelse, som skal kunne have gæster/kunder overnattende, der udover skal der være badeværelse samt de tilægsydelser, som kunden nu har fået med det værelse de har.</t>
+    </r>
+  </si>
+  <si>
+    <t>Customer</t>
   </si>
   <si>
     <r>
@@ -64,32 +82,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Værelse</t>
+      <t xml:space="preserve"> CustomerManager</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Description: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Det er hotel værelse, som skal kunne have gæster/kunder overnattende, der udover skal der være badeværelse samt de tilægsydelser, som kunden nu har fået med det værelse de har.</t>
-    </r>
-  </si>
-  <si>
-    <t>Leje værelse</t>
-  </si>
-  <si>
-    <t>Check ind</t>
-  </si>
-  <si>
-    <t>Check ud</t>
+    <t>Class: SqlManager</t>
   </si>
   <si>
     <r>
@@ -111,8 +108,68 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Tilægsydelser</t>
+      <t xml:space="preserve"> ReservartionManager</t>
     </r>
+  </si>
+  <si>
+    <t>CreateCustomer</t>
+  </si>
+  <si>
+    <t>CheckCustomer</t>
+  </si>
+  <si>
+    <t>CreateCustomerobjFromSql</t>
+  </si>
+  <si>
+    <t>SqlManager, Customer</t>
+  </si>
+  <si>
+    <t>CreateReservation</t>
+  </si>
+  <si>
+    <t>Reservation,SqlManager</t>
+  </si>
+  <si>
+    <t>SqlConnection</t>
+  </si>
+  <si>
+    <t>InsertPerson</t>
+  </si>
+  <si>
+    <t>GetCustomers</t>
+  </si>
+  <si>
+    <t>GetCustomerName</t>
+  </si>
+  <si>
+    <t>SelectAvailableRooms</t>
+  </si>
+  <si>
+    <t>GetBasePrice</t>
+  </si>
+  <si>
+    <t>CreateReservationSql</t>
+  </si>
+  <si>
+    <t>BookInformation</t>
+  </si>
+  <si>
+    <t>RoomInformation</t>
+  </si>
+  <si>
+    <t>Getcustomerinfor</t>
+  </si>
+  <si>
+    <t>SeeAllReservations</t>
+  </si>
+  <si>
+    <t>Sql</t>
+  </si>
+  <si>
+    <t>Sql, customer</t>
+  </si>
+  <si>
+    <t>sql</t>
   </si>
   <si>
     <r>
@@ -134,55 +191,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Kunde</t>
+      <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Kunde, Værelse </t>
-  </si>
-  <si>
-    <t>Betaling</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Class:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Receptionist</t>
-    </r>
-  </si>
-  <si>
-    <t>Receptionist, Kunde</t>
-  </si>
-  <si>
-    <t>Receptionist</t>
-  </si>
-  <si>
-    <t>Opdater status</t>
-  </si>
-  <si>
-    <t>Værelse</t>
-  </si>
-  <si>
-    <t>Slet reservation</t>
-  </si>
-  <si>
-    <t>Kunde</t>
   </si>
 </sst>
 </file>
@@ -429,14 +439,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -757,27 +767,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0713845-C1D6-45D3-9AA6-43204E1C6C6F}">
   <dimension ref="B1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31:I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.42578125" customWidth="1"/>
-    <col min="3" max="3" width="3.28515625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="4.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" customWidth="1"/>
-    <col min="10" max="10" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" customWidth="1"/>
+    <col min="7" max="7" width="4.109375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="9"/>
-      <c r="C2" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="24"/>
+      <c r="C2" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="23"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -786,7 +796,7 @@
       <c r="J2" s="11"/>
       <c r="L2" s="9"/>
       <c r="M2" s="20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="N2" s="20"/>
       <c r="O2" s="10"/>
@@ -796,12 +806,12 @@
       <c r="S2" s="10"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="2:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12"/>
-      <c r="C3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="25"/>
+      <c r="C3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="24"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -820,12 +830,12 @@
       <c r="S3" s="3"/>
       <c r="T3" s="13"/>
     </row>
-    <row r="4" spans="2:20" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12"/>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="23"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -833,10 +843,10 @@
       <c r="I4" s="14"/>
       <c r="J4" s="13"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="23" t="s">
+      <c r="M4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="23"/>
+      <c r="N4" s="25"/>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
@@ -844,7 +854,7 @@
       <c r="S4" s="14"/>
       <c r="T4" s="13"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="12"/>
       <c r="C5" s="15"/>
       <c r="D5" s="4" t="s">
@@ -872,67 +882,91 @@
       <c r="S5" s="1"/>
       <c r="T5" s="13"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="12"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="21"/>
+      <c r="D6" s="21" t="s">
+        <v>9</v>
+      </c>
       <c r="E6" s="21"/>
       <c r="F6" s="22"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="21"/>
+      <c r="H6" s="21" t="s">
+        <v>5</v>
+      </c>
       <c r="I6" s="21"/>
       <c r="J6" s="13"/>
       <c r="L6" s="12"/>
       <c r="M6" s="14"/>
-      <c r="N6" s="21"/>
+      <c r="N6" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="O6" s="21"/>
       <c r="P6" s="22"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="21"/>
+      <c r="R6" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="S6" s="21"/>
       <c r="T6" s="13"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="12"/>
       <c r="C7" s="14"/>
-      <c r="D7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>10</v>
+      </c>
       <c r="E7" s="21"/>
       <c r="F7" s="22"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="21"/>
+      <c r="H7" s="21" t="s">
+        <v>5</v>
+      </c>
       <c r="I7" s="21"/>
       <c r="J7" s="13"/>
       <c r="L7" s="12"/>
       <c r="M7" s="14"/>
-      <c r="N7" s="21"/>
+      <c r="N7" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="O7" s="21"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="6"/>
-      <c r="R7" s="21"/>
+      <c r="R7" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="S7" s="21"/>
       <c r="T7" s="13"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="21"/>
+      <c r="D8" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="E8" s="21"/>
       <c r="F8" s="22"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="21"/>
+      <c r="H8" s="21" t="s">
+        <v>12</v>
+      </c>
       <c r="I8" s="21"/>
       <c r="J8" s="13"/>
       <c r="L8" s="12"/>
       <c r="M8" s="14"/>
-      <c r="N8" s="21"/>
+      <c r="N8" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="O8" s="21"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="6"/>
-      <c r="R8" s="21"/>
+      <c r="R8" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="S8" s="21"/>
       <c r="T8" s="13"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="12"/>
       <c r="C9" s="14"/>
       <c r="D9" s="21"/>
@@ -944,15 +978,19 @@
       <c r="J9" s="13"/>
       <c r="L9" s="12"/>
       <c r="M9" s="14"/>
-      <c r="N9" s="21"/>
+      <c r="N9" s="21" t="s">
+        <v>18</v>
+      </c>
       <c r="O9" s="21"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="6"/>
-      <c r="R9" s="21"/>
+      <c r="R9" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="S9" s="21"/>
       <c r="T9" s="13"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="12"/>
       <c r="C10" s="14"/>
       <c r="D10" s="21"/>
@@ -964,15 +1002,19 @@
       <c r="J10" s="13"/>
       <c r="L10" s="12"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="21"/>
+      <c r="N10" s="21" t="s">
+        <v>19</v>
+      </c>
       <c r="O10" s="21"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="21"/>
+      <c r="R10" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="S10" s="21"/>
       <c r="T10" s="13"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="12"/>
       <c r="C11" s="14"/>
       <c r="D11" s="21"/>
@@ -984,15 +1026,19 @@
       <c r="J11" s="13"/>
       <c r="L11" s="12"/>
       <c r="M11" s="14"/>
-      <c r="N11" s="21"/>
+      <c r="N11" s="21" t="s">
+        <v>20</v>
+      </c>
       <c r="O11" s="21"/>
       <c r="P11" s="22"/>
       <c r="Q11" s="6"/>
-      <c r="R11" s="21"/>
+      <c r="R11" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="S11" s="21"/>
       <c r="T11" s="13"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="12"/>
       <c r="C12" s="14"/>
       <c r="D12" s="21"/>
@@ -1004,15 +1050,19 @@
       <c r="J12" s="13"/>
       <c r="L12" s="12"/>
       <c r="M12" s="14"/>
-      <c r="N12" s="21"/>
+      <c r="N12" s="21" t="s">
+        <v>21</v>
+      </c>
       <c r="O12" s="21"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="6"/>
-      <c r="R12" s="21"/>
+      <c r="R12" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="S12" s="21"/>
       <c r="T12" s="13"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="12"/>
       <c r="C13" s="14"/>
       <c r="D13" s="21"/>
@@ -1024,15 +1074,19 @@
       <c r="J13" s="13"/>
       <c r="L13" s="12"/>
       <c r="M13" s="14"/>
-      <c r="N13" s="21"/>
+      <c r="N13" s="21" t="s">
+        <v>22</v>
+      </c>
       <c r="O13" s="21"/>
       <c r="P13" s="22"/>
       <c r="Q13" s="6"/>
-      <c r="R13" s="21"/>
+      <c r="R13" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="S13" s="21"/>
       <c r="T13" s="13"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B14" s="12"/>
       <c r="C14" s="14"/>
       <c r="D14" s="21"/>
@@ -1044,15 +1098,19 @@
       <c r="J14" s="13"/>
       <c r="L14" s="12"/>
       <c r="M14" s="14"/>
-      <c r="N14" s="21"/>
+      <c r="N14" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="O14" s="21"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="6"/>
-      <c r="R14" s="21"/>
+      <c r="R14" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="S14" s="21"/>
       <c r="T14" s="13"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B15" s="12"/>
       <c r="C15" s="14"/>
       <c r="D15" s="2"/>
@@ -1064,15 +1122,19 @@
       <c r="J15" s="13"/>
       <c r="L15" s="12"/>
       <c r="M15" s="14"/>
-      <c r="N15" s="2"/>
+      <c r="N15" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="6"/>
-      <c r="R15" s="21"/>
+      <c r="R15" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="S15" s="21"/>
       <c r="T15" s="13"/>
     </row>
-    <row r="16" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="16"/>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -1084,21 +1146,25 @@
       <c r="J16" s="18"/>
       <c r="L16" s="16"/>
       <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
+      <c r="N16" s="17" t="s">
+        <v>25</v>
+      </c>
       <c r="O16" s="17"/>
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
+      <c r="R16" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="S16" s="17"/>
       <c r="T16" s="18"/>
     </row>
-    <row r="19" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:20" ht="21" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="2:20" ht="21" x14ac:dyDescent="0.4">
       <c r="B20" s="9"/>
-      <c r="C20" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="24"/>
+      <c r="C20" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="23"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -1107,7 +1173,7 @@
       <c r="J20" s="11"/>
       <c r="L20" s="9"/>
       <c r="M20" s="20" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N20" s="20"/>
       <c r="O20" s="10"/>
@@ -1117,7 +1183,7 @@
       <c r="S20" s="10"/>
       <c r="T20" s="11"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B21" s="12"/>
       <c r="C21" s="19" t="s">
         <v>3</v>
@@ -1141,12 +1207,12 @@
       <c r="S21" s="3"/>
       <c r="T21" s="13"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B22" s="12"/>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="23"/>
+      <c r="D22" s="25"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
@@ -1154,10 +1220,10 @@
       <c r="I22" s="14"/>
       <c r="J22" s="13"/>
       <c r="L22" s="12"/>
-      <c r="M22" s="23" t="s">
+      <c r="M22" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="N22" s="23"/>
+      <c r="N22" s="25"/>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
@@ -1165,7 +1231,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="13"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B23" s="12"/>
       <c r="C23" s="15"/>
       <c r="D23" s="4" t="s">
@@ -1193,46 +1259,38 @@
       <c r="S23" s="1"/>
       <c r="T23" s="13"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B24" s="12"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="21" t="s">
-        <v>6</v>
-      </c>
+      <c r="D24" s="21"/>
       <c r="E24" s="21"/>
       <c r="F24" s="22"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="21" t="s">
-        <v>11</v>
-      </c>
+      <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="13"/>
       <c r="L24" s="12"/>
       <c r="M24" s="14"/>
       <c r="N24" s="21" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O24" s="21"/>
       <c r="P24" s="22"/>
       <c r="Q24" s="26" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="R24" s="21"/>
       <c r="S24" s="21"/>
       <c r="T24" s="13"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B25" s="12"/>
       <c r="C25" s="14"/>
-      <c r="D25" s="21" t="s">
-        <v>7</v>
-      </c>
+      <c r="D25" s="21"/>
       <c r="E25" s="21"/>
       <c r="F25" s="22"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="21" t="s">
-        <v>14</v>
-      </c>
+      <c r="H25" s="21"/>
       <c r="I25" s="21"/>
       <c r="J25" s="13"/>
       <c r="L25" s="12"/>
@@ -1245,18 +1303,14 @@
       <c r="S25" s="21"/>
       <c r="T25" s="13"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B26" s="12"/>
       <c r="C26" s="14"/>
-      <c r="D26" s="21" t="s">
-        <v>8</v>
-      </c>
+      <c r="D26" s="21"/>
       <c r="E26" s="21"/>
       <c r="F26" s="22"/>
       <c r="G26" s="6"/>
-      <c r="H26" s="21" t="s">
-        <v>14</v>
-      </c>
+      <c r="H26" s="21"/>
       <c r="I26" s="21"/>
       <c r="J26" s="13"/>
       <c r="L26" s="12"/>
@@ -1269,18 +1323,14 @@
       <c r="S26" s="21"/>
       <c r="T26" s="13"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B27" s="12"/>
       <c r="C27" s="14"/>
-      <c r="D27" s="21" t="s">
-        <v>12</v>
-      </c>
+      <c r="D27" s="21"/>
       <c r="E27" s="21"/>
       <c r="F27" s="22"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="21" t="s">
-        <v>15</v>
-      </c>
+      <c r="H27" s="21"/>
       <c r="I27" s="21"/>
       <c r="J27" s="13"/>
       <c r="L27" s="12"/>
@@ -1293,18 +1343,14 @@
       <c r="S27" s="21"/>
       <c r="T27" s="13"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B28" s="12"/>
       <c r="C28" s="14"/>
-      <c r="D28" s="21" t="s">
-        <v>18</v>
-      </c>
+      <c r="D28" s="21"/>
       <c r="E28" s="21"/>
       <c r="F28" s="22"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="21" t="s">
-        <v>19</v>
-      </c>
+      <c r="H28" s="21"/>
       <c r="I28" s="21"/>
       <c r="J28" s="13"/>
       <c r="L28" s="12"/>
@@ -1317,7 +1363,7 @@
       <c r="S28" s="21"/>
       <c r="T28" s="13"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B29" s="12"/>
       <c r="C29" s="14"/>
       <c r="D29" s="21"/>
@@ -1337,7 +1383,7 @@
       <c r="S29" s="21"/>
       <c r="T29" s="13"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B30" s="12"/>
       <c r="C30" s="14"/>
       <c r="D30" s="21"/>
@@ -1357,7 +1403,7 @@
       <c r="S30" s="21"/>
       <c r="T30" s="13"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B31" s="12"/>
       <c r="C31" s="14"/>
       <c r="D31" s="21"/>
@@ -1377,7 +1423,7 @@
       <c r="S31" s="21"/>
       <c r="T31" s="13"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B32" s="12"/>
       <c r="C32" s="14"/>
       <c r="D32" s="21"/>
@@ -1397,7 +1443,7 @@
       <c r="S32" s="21"/>
       <c r="T32" s="13"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B33" s="12"/>
       <c r="C33" s="14"/>
       <c r="D33" s="2"/>
@@ -1417,7 +1463,7 @@
       <c r="S33" s="21"/>
       <c r="T33" s="13"/>
     </row>
-    <row r="34" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="16"/>
       <c r="C34" s="17"/>
       <c r="D34" s="17"/>
@@ -1439,60 +1485,25 @@
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="N32:P32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="Q26:S26"/>
     <mergeCell ref="N14:P14"/>
     <mergeCell ref="R14:S14"/>
     <mergeCell ref="R15:S15"/>
@@ -1503,25 +1514,60 @@
     <mergeCell ref="R12:S12"/>
     <mergeCell ref="N13:P13"/>
     <mergeCell ref="R13:S13"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="Q27:S27"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="Q30:S30"/>
-    <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="N27:P27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="N30:P30"/>
-    <mergeCell ref="N31:P31"/>
-    <mergeCell ref="N32:P32"/>
-    <mergeCell ref="Q32:S32"/>
-    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1529,6 +1575,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D087AE962150E341829D83F1B49B7FA7" ma:contentTypeVersion="7" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="9968a5d3cf7795acf5a68ba5affe55aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="64124355-cabc-4b7d-957b-ceba7f756cb5" xmlns:ns3="86ce603d-f463-4e75-b7e9-131a97709bff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b80cb9261f8277f360bf6000c0233e08" ns2:_="" ns3:_="">
     <xsd:import namespace="64124355-cabc-4b7d-957b-ceba7f756cb5"/>
@@ -1711,22 +1772,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEC08E90-DD5C-4C0C-87A8-09D255D174F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="86ce603d-f463-4e75-b7e9-131a97709bff"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="64124355-cabc-4b7d-957b-ceba7f756cb5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8839EA78-D391-4E41-928F-D5ECCA85A531}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51268877-E6DD-425E-850C-E0989BFDD46B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1743,29 +1814,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8839EA78-D391-4E41-928F-D5ECCA85A531}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEC08E90-DD5C-4C0C-87A8-09D255D174F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="86ce603d-f463-4e75-b7e9-131a97709bff"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="64124355-cabc-4b7d-957b-ceba7f756cb5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Dokumentation/CRC-kort template.xlsx
+++ b/Dokumentation/CRC-kort template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marc8847\Documents\GitHub\Country-Living\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F3C550-397E-4CAF-95AF-2A19C9AFB7A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67535E1-D7D2-4CB0-84AF-C80034BAFAFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{38320882-72EC-4BEA-8949-C468A3D1E1C9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Responsibilities:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description: </t>
   </si>
   <si>
     <r>
@@ -172,27 +169,10 @@
     <t>sql</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Class:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t>Description: Sql manager står for at have kontrol over kommunikation mellem database og hjemmeside/wpf</t>
+  </si>
+  <si>
+    <t>Description: Står for oprette reservationer</t>
   </si>
 </sst>
 </file>
@@ -439,17 +419,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,7 +748,7 @@
   <dimension ref="B1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31:I31"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,10 +764,10 @@
     <row r="1" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:20" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="9"/>
-      <c r="C2" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="23"/>
+      <c r="C2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="25"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -796,7 +776,7 @@
       <c r="J2" s="11"/>
       <c r="L2" s="9"/>
       <c r="M2" s="20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N2" s="20"/>
       <c r="O2" s="10"/>
@@ -808,10 +788,10 @@
     </row>
     <row r="3" spans="2:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12"/>
-      <c r="C3" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="24"/>
+      <c r="C3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="26"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -820,7 +800,7 @@
       <c r="J3" s="13"/>
       <c r="L3" s="12"/>
       <c r="M3" s="19" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="N3" s="19"/>
       <c r="O3" s="3"/>
@@ -832,10 +812,10 @@
     </row>
     <row r="4" spans="2:20" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12"/>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="25"/>
+      <c r="D4" s="24"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
@@ -843,10 +823,10 @@
       <c r="I4" s="14"/>
       <c r="J4" s="13"/>
       <c r="L4" s="12"/>
-      <c r="M4" s="25" t="s">
+      <c r="M4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="25"/>
+      <c r="N4" s="24"/>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
       <c r="Q4" s="14"/>
@@ -886,26 +866,26 @@
       <c r="B6" s="12"/>
       <c r="C6" s="14"/>
       <c r="D6" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="22"/>
       <c r="G6" s="8"/>
       <c r="H6" s="21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="13"/>
       <c r="L6" s="12"/>
       <c r="M6" s="14"/>
       <c r="N6" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O6" s="21"/>
       <c r="P6" s="22"/>
       <c r="Q6" s="8"/>
       <c r="R6" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S6" s="21"/>
       <c r="T6" s="13"/>
@@ -914,26 +894,26 @@
       <c r="B7" s="12"/>
       <c r="C7" s="14"/>
       <c r="D7" s="21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="22"/>
       <c r="G7" s="6"/>
       <c r="H7" s="21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I7" s="21"/>
       <c r="J7" s="13"/>
       <c r="L7" s="12"/>
       <c r="M7" s="14"/>
       <c r="N7" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O7" s="21"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="S7" s="21"/>
       <c r="T7" s="13"/>
@@ -942,26 +922,26 @@
       <c r="B8" s="12"/>
       <c r="C8" s="14"/>
       <c r="D8" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="22"/>
       <c r="G8" s="6"/>
       <c r="H8" s="21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="13"/>
       <c r="L8" s="12"/>
       <c r="M8" s="14"/>
       <c r="N8" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O8" s="21"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S8" s="21"/>
       <c r="T8" s="13"/>
@@ -979,13 +959,13 @@
       <c r="L9" s="12"/>
       <c r="M9" s="14"/>
       <c r="N9" s="21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O9" s="21"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S9" s="21"/>
       <c r="T9" s="13"/>
@@ -1003,13 +983,13 @@
       <c r="L10" s="12"/>
       <c r="M10" s="14"/>
       <c r="N10" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O10" s="21"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S10" s="21"/>
       <c r="T10" s="13"/>
@@ -1027,13 +1007,13 @@
       <c r="L11" s="12"/>
       <c r="M11" s="14"/>
       <c r="N11" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O11" s="21"/>
       <c r="P11" s="22"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S11" s="21"/>
       <c r="T11" s="13"/>
@@ -1051,13 +1031,13 @@
       <c r="L12" s="12"/>
       <c r="M12" s="14"/>
       <c r="N12" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O12" s="21"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S12" s="21"/>
       <c r="T12" s="13"/>
@@ -1075,13 +1055,13 @@
       <c r="L13" s="12"/>
       <c r="M13" s="14"/>
       <c r="N13" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O13" s="21"/>
       <c r="P13" s="22"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S13" s="21"/>
       <c r="T13" s="13"/>
@@ -1099,13 +1079,13 @@
       <c r="L14" s="12"/>
       <c r="M14" s="14"/>
       <c r="N14" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O14" s="21"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S14" s="21"/>
       <c r="T14" s="13"/>
@@ -1123,13 +1103,13 @@
       <c r="L15" s="12"/>
       <c r="M15" s="14"/>
       <c r="N15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S15" s="21"/>
       <c r="T15" s="13"/>
@@ -1147,33 +1127,22 @@
       <c r="L16" s="16"/>
       <c r="M16" s="17"/>
       <c r="N16" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O16" s="17"/>
       <c r="P16" s="17"/>
       <c r="Q16" s="17"/>
       <c r="R16" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="S16" s="17"/>
       <c r="T16" s="18"/>
     </row>
-    <row r="19" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="2:20" ht="21" x14ac:dyDescent="0.4">
-      <c r="B20" s="9"/>
-      <c r="C20" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11"/>
+    <row r="19" spans="12:20" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="12:20" ht="21" x14ac:dyDescent="0.4">
       <c r="L20" s="9"/>
       <c r="M20" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N20" s="20"/>
       <c r="O20" s="10"/>
@@ -1183,21 +1152,10 @@
       <c r="S20" s="10"/>
       <c r="T20" s="11"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="13"/>
+    <row r="21" spans="12:20" x14ac:dyDescent="0.3">
       <c r="L21" s="12"/>
       <c r="M21" s="19" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="N21" s="19"/>
       <c r="O21" s="3"/>
@@ -1207,23 +1165,12 @@
       <c r="S21" s="3"/>
       <c r="T21" s="13"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="C22" s="25" t="s">
+    <row r="22" spans="12:20" x14ac:dyDescent="0.3">
+      <c r="L22" s="12"/>
+      <c r="M22" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="13"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="N22" s="25"/>
+      <c r="N22" s="24"/>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
@@ -1231,20 +1178,7 @@
       <c r="S22" s="14"/>
       <c r="T22" s="13"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="13"/>
+    <row r="23" spans="12:20" x14ac:dyDescent="0.3">
       <c r="L23" s="12"/>
       <c r="M23" s="15"/>
       <c r="N23" s="4" t="s">
@@ -1259,220 +1193,121 @@
       <c r="S23" s="1"/>
       <c r="T23" s="13"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="13"/>
+    <row r="24" spans="12:20" x14ac:dyDescent="0.3">
       <c r="L24" s="12"/>
       <c r="M24" s="14"/>
       <c r="N24" s="21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O24" s="21"/>
       <c r="P24" s="22"/>
-      <c r="Q24" s="26" t="s">
-        <v>14</v>
+      <c r="Q24" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="R24" s="21"/>
       <c r="S24" s="21"/>
       <c r="T24" s="13"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="13"/>
+    <row r="25" spans="12:20" x14ac:dyDescent="0.3">
       <c r="L25" s="12"/>
       <c r="M25" s="14"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
       <c r="P25" s="22"/>
-      <c r="Q25" s="26"/>
+      <c r="Q25" s="23"/>
       <c r="R25" s="21"/>
       <c r="S25" s="21"/>
       <c r="T25" s="13"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="13"/>
+    <row r="26" spans="12:20" x14ac:dyDescent="0.3">
       <c r="L26" s="12"/>
       <c r="M26" s="14"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
       <c r="P26" s="22"/>
-      <c r="Q26" s="26"/>
+      <c r="Q26" s="23"/>
       <c r="R26" s="21"/>
       <c r="S26" s="21"/>
       <c r="T26" s="13"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="13"/>
+    <row r="27" spans="12:20" x14ac:dyDescent="0.3">
       <c r="L27" s="12"/>
       <c r="M27" s="14"/>
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
       <c r="P27" s="22"/>
-      <c r="Q27" s="26"/>
+      <c r="Q27" s="23"/>
       <c r="R27" s="21"/>
       <c r="S27" s="21"/>
       <c r="T27" s="13"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="13"/>
+    <row r="28" spans="12:20" x14ac:dyDescent="0.3">
       <c r="L28" s="12"/>
       <c r="M28" s="14"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="22"/>
-      <c r="Q28" s="26"/>
+      <c r="Q28" s="23"/>
       <c r="R28" s="21"/>
       <c r="S28" s="21"/>
       <c r="T28" s="13"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B29" s="12"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="13"/>
+    <row r="29" spans="12:20" x14ac:dyDescent="0.3">
       <c r="L29" s="12"/>
       <c r="M29" s="14"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
       <c r="P29" s="22"/>
-      <c r="Q29" s="26"/>
+      <c r="Q29" s="23"/>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
       <c r="T29" s="13"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B30" s="12"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="13"/>
+    <row r="30" spans="12:20" x14ac:dyDescent="0.3">
       <c r="L30" s="12"/>
       <c r="M30" s="14"/>
       <c r="N30" s="21"/>
       <c r="O30" s="21"/>
       <c r="P30" s="22"/>
-      <c r="Q30" s="26"/>
+      <c r="Q30" s="23"/>
       <c r="R30" s="21"/>
       <c r="S30" s="21"/>
       <c r="T30" s="13"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B31" s="12"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="13"/>
+    <row r="31" spans="12:20" x14ac:dyDescent="0.3">
       <c r="L31" s="12"/>
       <c r="M31" s="14"/>
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
       <c r="P31" s="22"/>
-      <c r="Q31" s="26"/>
+      <c r="Q31" s="23"/>
       <c r="R31" s="21"/>
       <c r="S31" s="21"/>
       <c r="T31" s="13"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B32" s="12"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="13"/>
+    <row r="32" spans="12:20" x14ac:dyDescent="0.3">
       <c r="L32" s="12"/>
       <c r="M32" s="14"/>
       <c r="N32" s="21"/>
       <c r="O32" s="21"/>
       <c r="P32" s="22"/>
-      <c r="Q32" s="26"/>
+      <c r="Q32" s="23"/>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
       <c r="T32" s="13"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B33" s="12"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="13"/>
+    <row r="33" spans="12:20" x14ac:dyDescent="0.3">
       <c r="L33" s="12"/>
       <c r="M33" s="14"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="7"/>
-      <c r="Q33" s="26"/>
+      <c r="Q33" s="23"/>
       <c r="R33" s="21"/>
       <c r="S33" s="21"/>
       <c r="T33" s="13"/>
     </row>
-    <row r="34" spans="2:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="18"/>
+    <row r="34" spans="12:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L34" s="16"/>
       <c r="M34" s="17"/>
       <c r="N34" s="17"/>
@@ -1484,7 +1319,56 @@
       <c r="T34" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
+  <mergeCells count="62">
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="N14:P14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="Q26:S26"/>
     <mergeCell ref="N32:P32"/>
     <mergeCell ref="Q32:S32"/>
     <mergeCell ref="Q33:S33"/>
@@ -1498,76 +1382,6 @@
     <mergeCell ref="Q29:S29"/>
     <mergeCell ref="Q30:S30"/>
     <mergeCell ref="Q31:S31"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N25:P25"/>
-    <mergeCell ref="N26:P26"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="N14:P14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1575,21 +1389,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D087AE962150E341829D83F1B49B7FA7" ma:contentTypeVersion="7" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="9968a5d3cf7795acf5a68ba5affe55aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="64124355-cabc-4b7d-957b-ceba7f756cb5" xmlns:ns3="86ce603d-f463-4e75-b7e9-131a97709bff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b80cb9261f8277f360bf6000c0233e08" ns2:_="" ns3:_="">
     <xsd:import namespace="64124355-cabc-4b7d-957b-ceba7f756cb5"/>
@@ -1772,32 +1571,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEC08E90-DD5C-4C0C-87A8-09D255D174F1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="86ce603d-f463-4e75-b7e9-131a97709bff"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="64124355-cabc-4b7d-957b-ceba7f756cb5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8839EA78-D391-4E41-928F-D5ECCA85A531}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51268877-E6DD-425E-850C-E0989BFDD46B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1814,4 +1603,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8839EA78-D391-4E41-928F-D5ECCA85A531}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FEC08E90-DD5C-4C0C-87A8-09D255D174F1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="86ce603d-f463-4e75-b7e9-131a97709bff"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="64124355-cabc-4b7d-957b-ceba7f756cb5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>